--- a/biology/Zoologie/Alytes/Alytes.xlsx
+++ b/biology/Zoologie/Alytes/Alytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alytes est un genre d'amphibiens de la famille des Alytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alytes est un genre d'amphibiens de la famille des Alytidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent en Europe occidentale et au Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre se rencontrent en Europe occidentale et au Maroc.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit crapaud au chant fluté apprécie les zones caillouteuses humides et oligotrophes. De jour, l'adulte se cache sous les pierres hors de l'eau.
 C'est un crapaud non forestier qui colonise assez facilement de nouveaux habitats (mares, grandes ornières, carrières inondées...) à condition qu'ils ne soient pas trop éloignés.
@@ -574,7 +590,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Particularité unique chez les amphibiens, le mâle s'occupe des œufs, dont il enroule les rubans pondus par la femelle, tout en les fécondant, autour de ses pattes arrière. Il les protège hors de la mare, et les y ramène, la nuit ou toutes les deux nuits, pour les humidifier. 
 Si l'eau est froide, que la ponte a été tardive, ou que l'alimentation manque, le têtard peut passer l'hiver suivant dans la vase et prendre une taille anormalement grande avant de cesser de s'alimenter au printemps suivant pour se transformer en un jeune crapaud, de taille normale.
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (15 mars 2020)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (15 mars 2020) :
 Alytes almogavarii Arntzen and García-París, 1995
 Alytes cisternasii Boscá, 1879
 Alytes dickhilleni Arntzen &amp; García-París, 1995
